--- a/menu_excel.xlsx
+++ b/menu_excel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\self-study\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JH\POS_packages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F550E373-ABE1-4BFE-AA64-7F6F61C68C92}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC2E3CD6-1DC0-4448-A830-9AB206CB219D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29610" yWindow="1290" windowWidth="26670" windowHeight="13725" xr2:uid="{9490BA17-F5BD-4E00-925F-3D14EA49BCF6}"/>
+    <workbookView xWindow="915" yWindow="915" windowWidth="27015" windowHeight="13500" xr2:uid="{9490BA17-F5BD-4E00-925F-3D14EA49BCF6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -463,7 +463,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.3"/>
@@ -543,7 +543,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="C3" formula="1"/>
+    <ignoredError sqref="C3:C4" formula="1"/>
   </ignoredErrors>
 </worksheet>
 </file>